--- a/skelton/納期案内スケルトン.xlsx
+++ b/skelton/納期案内スケルトン.xlsx
@@ -69,7 +69,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,13 +92,6 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
